--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value772.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value772.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.02009404724206</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>2.952955991702108</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>3.907871821883608</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.170007599083694</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.188191235514367</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
